--- a/ig/ekg/all-profiles.xlsx
+++ b/ig/ekg/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T12:00:33+00:00</t>
+    <t>2026-01-15T08:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ekg/all-profiles.xlsx
+++ b/ig/ekg/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T12:00:33+00:00</t>
+    <t>2026-01-15T08:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ekg/all-profiles.xlsx
+++ b/ig/ekg/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T08:35:33+00:00</t>
+    <t>2026-01-28T10:08:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -36061,7 +36061,7 @@
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H300" t="s" s="2">
         <v>82</v>
